--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H2">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J2">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>63.33923130406622</v>
+        <v>88.26813193022666</v>
       </c>
       <c r="R2">
-        <v>570.053081736596</v>
+        <v>794.4131873720398</v>
       </c>
       <c r="S2">
-        <v>0.092376496012111</v>
+        <v>0.1422864002616815</v>
       </c>
       <c r="T2">
-        <v>0.09237649601211101</v>
+        <v>0.1422864002616815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H3">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J3">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>12.35865624310978</v>
+        <v>15.80798404164889</v>
       </c>
       <c r="R3">
-        <v>111.227906187988</v>
+        <v>142.27185637484</v>
       </c>
       <c r="S3">
-        <v>0.01802436397871772</v>
+        <v>0.02548214282430154</v>
       </c>
       <c r="T3">
-        <v>0.01802436397871772</v>
+        <v>0.02548214282430154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H4">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J4">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>45.75416987725288</v>
+        <v>12.90443964280111</v>
       </c>
       <c r="R4">
-        <v>411.787528895276</v>
+        <v>116.13995678521</v>
       </c>
       <c r="S4">
-        <v>0.06672973138738049</v>
+        <v>0.02080168939815915</v>
       </c>
       <c r="T4">
-        <v>0.06672973138738049</v>
+        <v>0.02080168939815915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H5">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J5">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>2.972480549804444</v>
+        <v>2.56201260738</v>
       </c>
       <c r="R5">
-        <v>26.75232494824</v>
+        <v>23.05811346642</v>
       </c>
       <c r="S5">
-        <v>0.004335185824041726</v>
+        <v>0.004129911252877795</v>
       </c>
       <c r="T5">
-        <v>0.004335185824041726</v>
+        <v>0.004129911252877795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.139906333333333</v>
+        <v>1.458056666666667</v>
       </c>
       <c r="H6">
-        <v>3.419719</v>
+        <v>4.374169999999999</v>
       </c>
       <c r="I6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805328</v>
       </c>
       <c r="J6">
-        <v>0.2178538649973527</v>
+        <v>0.2323568509805327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>24.94999928623022</v>
+        <v>24.60125114171889</v>
       </c>
       <c r="R6">
-        <v>224.549993576072</v>
+        <v>221.41126027547</v>
       </c>
       <c r="S6">
-        <v>0.03638808779510173</v>
+        <v>0.03965670724351279</v>
       </c>
       <c r="T6">
-        <v>0.03638808779510174</v>
+        <v>0.03965670724351279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J7">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>105.736532788272</v>
+        <v>115.199601308496</v>
       </c>
       <c r="R7">
-        <v>951.6287950944482</v>
+        <v>1036.796411776464</v>
       </c>
       <c r="S7">
-        <v>0.1542104348024066</v>
+        <v>0.1856993710337458</v>
       </c>
       <c r="T7">
-        <v>0.1542104348024066</v>
+        <v>0.1856993710337458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J8">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
         <v>20.631154407216</v>
@@ -948,10 +948,10 @@
         <v>185.680389664944</v>
       </c>
       <c r="S8">
-        <v>0.03008930979402469</v>
+        <v>0.03325699354514652</v>
       </c>
       <c r="T8">
-        <v>0.0300893097940247</v>
+        <v>0.03325699354514653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J9">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>76.38058094203201</v>
+        <v>16.841710246404</v>
       </c>
       <c r="R9">
-        <v>687.4252284782881</v>
+        <v>151.575392217636</v>
       </c>
       <c r="S9">
-        <v>0.1113965276421247</v>
+        <v>0.02714848805348393</v>
       </c>
       <c r="T9">
-        <v>0.1113965276421247</v>
+        <v>0.02714848805348393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J10">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>4.962166111680001</v>
+        <v>3.343707683208</v>
       </c>
       <c r="R10">
-        <v>44.65949500512001</v>
+        <v>30.093369148872</v>
       </c>
       <c r="S10">
-        <v>0.007237023699048471</v>
+        <v>0.005389987522870322</v>
       </c>
       <c r="T10">
-        <v>0.007237023699048471</v>
+        <v>0.005389987522870322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>5.708772000000001</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="J11">
-        <v>0.3636784322304457</v>
+        <v>0.3032511962008422</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>41.650748884704</v>
+        <v>32.107333204428</v>
       </c>
       <c r="R11">
-        <v>374.856739962336</v>
+        <v>288.965998839852</v>
       </c>
       <c r="S11">
-        <v>0.06074513629284119</v>
+        <v>0.05175635604559562</v>
       </c>
       <c r="T11">
-        <v>0.06074513629284119</v>
+        <v>0.05175635604559562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H12">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I12">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J12">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>121.6660655503715</v>
+        <v>176.4140372265773</v>
       </c>
       <c r="R12">
-        <v>1094.994589953344</v>
+        <v>1587.726335039196</v>
       </c>
       <c r="S12">
-        <v>0.1774427094823554</v>
+        <v>0.2843757737213903</v>
       </c>
       <c r="T12">
-        <v>0.1774427094823554</v>
+        <v>0.2843757737213903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H13">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I13">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J13">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>23.73930105609244</v>
+        <v>31.59407845410178</v>
       </c>
       <c r="R13">
-        <v>213.653709504832</v>
+        <v>284.346706086916</v>
       </c>
       <c r="S13">
-        <v>0.03462235654251844</v>
+        <v>0.05092900001976681</v>
       </c>
       <c r="T13">
-        <v>0.03462235654251845</v>
+        <v>0.05092900001976682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H14">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I14">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J14">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>87.88754957831821</v>
+        <v>25.79101025195322</v>
       </c>
       <c r="R14">
-        <v>790.987946204864</v>
+        <v>232.119092267579</v>
       </c>
       <c r="S14">
-        <v>0.1281787559776482</v>
+        <v>0.04157457428422009</v>
       </c>
       <c r="T14">
-        <v>0.1281787559776482</v>
+        <v>0.04157457428422009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H15">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I15">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J15">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>5.709731646151111</v>
+        <v>5.120477545062</v>
       </c>
       <c r="R15">
-        <v>51.38758481536</v>
+        <v>46.084297905558</v>
       </c>
       <c r="S15">
-        <v>0.00832730350181944</v>
+        <v>0.008254103735689799</v>
       </c>
       <c r="T15">
-        <v>0.008327303501819441</v>
+        <v>0.008254103735689799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.189605333333333</v>
+        <v>2.914094333333333</v>
       </c>
       <c r="H16">
-        <v>6.568816</v>
+        <v>8.742283</v>
       </c>
       <c r="I16">
-        <v>0.4184677027722015</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="J16">
-        <v>0.4184677027722016</v>
+        <v>0.4643919528186251</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>47.92556186966755</v>
+        <v>49.16843644279478</v>
       </c>
       <c r="R16">
-        <v>431.330056827008</v>
+        <v>442.515927985153</v>
       </c>
       <c r="S16">
-        <v>0.06989657726786003</v>
+        <v>0.07925850105755806</v>
       </c>
       <c r="T16">
-        <v>0.06989657726786004</v>
+        <v>0.07925850105755806</v>
       </c>
     </row>
   </sheetData>
